--- a/public/人员名单-zhCn.xlsx
+++ b/public/人员名单-zhCn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\99_CodeProj\年会抽奖\log-lottery\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022533F8-0965-4B04-A99A-AC0C059D832B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AECDA4-0A65-4C35-919B-E97CA8F4CD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,75 +396,75 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/avatars/002.png</t>
-  </si>
-  <si>
-    <t>/avatars/001.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>avatar</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/avatars/003.png</t>
-  </si>
-  <si>
-    <t>/avatars/004.png</t>
-  </si>
-  <si>
-    <t>/avatars/005.png</t>
-  </si>
-  <si>
-    <t>/avatars/006.png</t>
-  </si>
-  <si>
-    <t>/avatars/007.png</t>
-  </si>
-  <si>
-    <t>/avatars/008.png</t>
-  </si>
-  <si>
-    <t>/avatars/009.png</t>
-  </si>
-  <si>
-    <t>/avatars/010.png</t>
-  </si>
-  <si>
-    <t>/avatars/011.png</t>
-  </si>
-  <si>
-    <t>/avatars/012.png</t>
-  </si>
-  <si>
-    <t>/avatars/013.png</t>
-  </si>
-  <si>
-    <t>/avatars/014.png</t>
-  </si>
-  <si>
-    <t>/avatars/015.png</t>
-  </si>
-  <si>
-    <t>/avatars/016.png</t>
-  </si>
-  <si>
-    <t>/avatars/017.png</t>
-  </si>
-  <si>
-    <t>/avatars/018.png</t>
-  </si>
-  <si>
-    <t>/avatars/019.png</t>
-  </si>
-  <si>
-    <t>/avatars/020.png</t>
-  </si>
-  <si>
-    <t>/avatars/021.png</t>
-  </si>
-  <si>
-    <t>/avatars/022.png</t>
+    <t>1001.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002.png</t>
+  </si>
+  <si>
+    <t>1003.png</t>
+  </si>
+  <si>
+    <t>1004.png</t>
+  </si>
+  <si>
+    <t>1005.png</t>
+  </si>
+  <si>
+    <t>1006.png</t>
+  </si>
+  <si>
+    <t>1007.png</t>
+  </si>
+  <si>
+    <t>1008.png</t>
+  </si>
+  <si>
+    <t>1009.png</t>
+  </si>
+  <si>
+    <t>1010.png</t>
+  </si>
+  <si>
+    <t>1011.png</t>
+  </si>
+  <si>
+    <t>1012.png</t>
+  </si>
+  <si>
+    <t>1013.png</t>
+  </si>
+  <si>
+    <t>1014.png</t>
+  </si>
+  <si>
+    <t>1015.png</t>
+  </si>
+  <si>
+    <t>1016.png</t>
+  </si>
+  <si>
+    <t>1017.png</t>
+  </si>
+  <si>
+    <t>1018.png</t>
+  </si>
+  <si>
+    <t>1019.png</t>
+  </si>
+  <si>
+    <t>1020.png</t>
+  </si>
+  <si>
+    <t>1021.png</t>
+  </si>
+  <si>
+    <t>1022.png</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,6 +610,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,14 +1104,14 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" style="11" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
@@ -1114,8 +1124,8 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>119</v>
+      <c r="C1" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>110</v>
@@ -1131,7 +1141,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1148,8 +1158,8 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
+      <c r="C3" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1165,7 +1175,7 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1182,7 +1192,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1199,7 +1209,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1216,7 +1226,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1233,7 +1243,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1250,7 +1260,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1267,7 +1277,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1284,7 +1294,7 @@
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1301,7 +1311,7 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1318,7 +1328,7 @@
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1335,7 +1345,7 @@
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1352,7 +1362,7 @@
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1369,7 +1379,7 @@
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>132</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1386,7 +1396,7 @@
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1403,7 +1413,7 @@
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1420,7 +1430,7 @@
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1437,7 +1447,7 @@
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1454,7 +1464,7 @@
       <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1471,7 +1481,7 @@
       <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>138</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1488,7 +1498,7 @@
       <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1505,7 +1515,7 @@
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1522,8 +1532,8 @@
       <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>117</v>
+      <c r="C25" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>111</v>
@@ -1539,7 +1549,7 @@
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1556,7 +1566,7 @@
       <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1573,7 +1583,7 @@
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1590,7 +1600,7 @@
       <c r="B29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1607,7 +1617,7 @@
       <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1624,7 +1634,7 @@
       <c r="B31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1641,7 +1651,7 @@
       <c r="B32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="10" t="s">
         <v>126</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1658,7 +1668,7 @@
       <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1675,7 +1685,7 @@
       <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1692,7 +1702,7 @@
       <c r="B35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1709,7 +1719,7 @@
       <c r="B36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="10" t="s">
         <v>130</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1726,7 +1736,7 @@
       <c r="B37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D37" s="2" t="s">
